--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gnai2-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gnai2-Egfr.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>150.0354306666667</v>
+        <v>169.915657</v>
       </c>
       <c r="H2">
-        <v>450.1062919999999</v>
+        <v>509.746971</v>
       </c>
       <c r="I2">
-        <v>0.4152507364956075</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="J2">
-        <v>0.4152507364956074</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.854571666666667</v>
+        <v>1.370876333333333</v>
       </c>
       <c r="N2">
-        <v>5.563715</v>
+        <v>4.112629</v>
       </c>
       <c r="O2">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="P2">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="Q2">
-        <v>278.2514587105311</v>
+        <v>232.9333528440843</v>
       </c>
       <c r="R2">
-        <v>2504.26312839478</v>
+        <v>2096.400175596759</v>
       </c>
       <c r="S2">
-        <v>0.006857332922935749</v>
+        <v>0.004898908148186765</v>
       </c>
       <c r="T2">
-        <v>0.006857332922935749</v>
+        <v>0.004898908148186765</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>150.0354306666667</v>
+        <v>169.915657</v>
       </c>
       <c r="H3">
-        <v>450.1062919999999</v>
+        <v>509.746971</v>
       </c>
       <c r="I3">
-        <v>0.4152507364956075</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="J3">
-        <v>0.4152507364956074</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>278.741173</v>
       </c>
       <c r="O3">
-        <v>0.8273343794712995</v>
+        <v>0.7476219244149905</v>
       </c>
       <c r="P3">
-        <v>0.8273343794712996</v>
+        <v>0.7476219244149904</v>
       </c>
       <c r="Q3">
-        <v>13940.35064519561</v>
+        <v>15787.49651441522</v>
       </c>
       <c r="R3">
-        <v>125463.1558067605</v>
+        <v>142087.468629737</v>
       </c>
       <c r="S3">
-        <v>0.3435512104035935</v>
+        <v>0.3320327225346212</v>
       </c>
       <c r="T3">
-        <v>0.3435512104035935</v>
+        <v>0.3320327225346212</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>150.0354306666667</v>
+        <v>169.915657</v>
       </c>
       <c r="H4">
-        <v>450.1062919999999</v>
+        <v>509.746971</v>
       </c>
       <c r="I4">
-        <v>0.4152507364956075</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="J4">
-        <v>0.4152507364956074</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.37449166666667</v>
+        <v>29.718484</v>
       </c>
       <c r="N4">
-        <v>52.123475</v>
+        <v>89.155452</v>
       </c>
       <c r="O4">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="P4">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="Q4">
-        <v>2606.789339822744</v>
+        <v>5049.635733903989</v>
       </c>
       <c r="R4">
-        <v>23461.1040584047</v>
+        <v>45446.72160513589</v>
       </c>
       <c r="S4">
-        <v>0.06424269057191435</v>
+        <v>0.1062007709078728</v>
       </c>
       <c r="T4">
-        <v>0.06424269057191434</v>
+        <v>0.1062007709078728</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>150.0354306666667</v>
+        <v>169.915657</v>
       </c>
       <c r="H5">
-        <v>450.1062919999999</v>
+        <v>509.746971</v>
       </c>
       <c r="I5">
-        <v>0.4152507364956075</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="J5">
-        <v>0.4152507364956074</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.162136</v>
+        <v>0.275941</v>
       </c>
       <c r="N5">
-        <v>0.4864080000000001</v>
+        <v>0.827823</v>
       </c>
       <c r="O5">
-        <v>0.001443712303133186</v>
+        <v>0.002220334433101459</v>
       </c>
       <c r="P5">
-        <v>0.001443712303133187</v>
+        <v>0.002220334433101458</v>
       </c>
       <c r="Q5">
-        <v>24.32614458657067</v>
+        <v>46.886696308237</v>
       </c>
       <c r="R5">
-        <v>218.935301279136</v>
+        <v>421.980266774133</v>
       </c>
       <c r="S5">
-        <v>0.0005995025971638252</v>
+        <v>0.000986091582770148</v>
       </c>
       <c r="T5">
-        <v>0.0005995025971638254</v>
+        <v>0.000986091582770148</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>205.146729</v>
       </c>
       <c r="I6">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="J6">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.854571666666667</v>
+        <v>1.370876333333333</v>
       </c>
       <c r="N6">
-        <v>5.563715</v>
+        <v>4.112629</v>
       </c>
       <c r="O6">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="P6">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="Q6">
-        <v>126.819770370915</v>
+        <v>93.74359854894901</v>
       </c>
       <c r="R6">
-        <v>1141.377933338235</v>
+        <v>843.692386940541</v>
       </c>
       <c r="S6">
-        <v>0.003125393809878752</v>
+        <v>0.001971556555403175</v>
       </c>
       <c r="T6">
-        <v>0.003125393809878752</v>
+        <v>0.001971556555403175</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>205.146729</v>
       </c>
       <c r="I7">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="J7">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>278.741173</v>
       </c>
       <c r="O7">
-        <v>0.8273343794712995</v>
+        <v>0.7476219244149905</v>
       </c>
       <c r="P7">
-        <v>0.8273343794712996</v>
+        <v>0.7476219244149904</v>
       </c>
       <c r="Q7">
         <v>6353.648875397013</v>
@@ -883,10 +883,10 @@
         <v>57182.83987857312</v>
       </c>
       <c r="S7">
-        <v>0.1565816970589871</v>
+        <v>0.1336259572377962</v>
       </c>
       <c r="T7">
-        <v>0.1565816970589871</v>
+        <v>0.1336259572377962</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>205.146729</v>
       </c>
       <c r="I8">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="J8">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.37449166666667</v>
+        <v>29.718484</v>
       </c>
       <c r="N8">
-        <v>52.123475</v>
+        <v>89.155452</v>
       </c>
       <c r="O8">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="P8">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="Q8">
-        <v>1188.106711151475</v>
+        <v>2032.216594479612</v>
       </c>
       <c r="R8">
-        <v>10692.96040036327</v>
+        <v>18289.94935031651</v>
       </c>
       <c r="S8">
-        <v>0.02928014575052279</v>
+        <v>0.04274030452066867</v>
       </c>
       <c r="T8">
-        <v>0.02928014575052279</v>
+        <v>0.04274030452066867</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>205.146729</v>
       </c>
       <c r="I9">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="J9">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.162136</v>
+        <v>0.275941</v>
       </c>
       <c r="N9">
-        <v>0.4864080000000001</v>
+        <v>0.827823</v>
       </c>
       <c r="O9">
-        <v>0.001443712303133186</v>
+        <v>0.002220334433101459</v>
       </c>
       <c r="P9">
-        <v>0.001443712303133187</v>
+        <v>0.002220334433101458</v>
       </c>
       <c r="Q9">
-        <v>11.087223351048</v>
+        <v>18.869464515663</v>
       </c>
       <c r="R9">
-        <v>99.78501015943201</v>
+        <v>169.825180640967</v>
       </c>
       <c r="S9">
-        <v>0.0002732376752359717</v>
+        <v>0.0003968507400894956</v>
       </c>
       <c r="T9">
-        <v>0.0002732376752359717</v>
+        <v>0.0003968507400894955</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>38.15794</v>
+        <v>53.27463399999999</v>
       </c>
       <c r="H10">
-        <v>114.47382</v>
+        <v>159.823902</v>
       </c>
       <c r="I10">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793777</v>
       </c>
       <c r="J10">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793778</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.854571666666667</v>
+        <v>1.370876333333333</v>
       </c>
       <c r="N10">
-        <v>5.563715</v>
+        <v>4.112629</v>
       </c>
       <c r="O10">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="P10">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="Q10">
-        <v>70.76663438236668</v>
+        <v>73.03293491759533</v>
       </c>
       <c r="R10">
-        <v>636.8997094413</v>
+        <v>657.2964142583579</v>
       </c>
       <c r="S10">
-        <v>0.00174399938115111</v>
+        <v>0.001535982870573649</v>
       </c>
       <c r="T10">
-        <v>0.00174399938115111</v>
+        <v>0.001535982870573649</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>38.15794</v>
+        <v>53.27463399999999</v>
       </c>
       <c r="H11">
-        <v>114.47382</v>
+        <v>159.823902</v>
       </c>
       <c r="I11">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793777</v>
       </c>
       <c r="J11">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793778</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>278.741173</v>
       </c>
       <c r="O11">
-        <v>0.8273343794712995</v>
+        <v>0.7476219244149905</v>
       </c>
       <c r="P11">
-        <v>0.8273343794712996</v>
+        <v>0.7476219244149904</v>
       </c>
       <c r="Q11">
-        <v>3545.396318287874</v>
+        <v>4949.944657435227</v>
       </c>
       <c r="R11">
-        <v>31908.56686459086</v>
+        <v>44549.50191691704</v>
       </c>
       <c r="S11">
-        <v>0.08737407167932479</v>
+        <v>0.1041041307279616</v>
       </c>
       <c r="T11">
-        <v>0.08737407167932479</v>
+        <v>0.1041041307279617</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>38.15794</v>
+        <v>53.27463399999999</v>
       </c>
       <c r="H12">
-        <v>114.47382</v>
+        <v>159.823902</v>
       </c>
       <c r="I12">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793777</v>
       </c>
       <c r="J12">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793778</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.37449166666667</v>
+        <v>29.718484</v>
       </c>
       <c r="N12">
-        <v>52.123475</v>
+        <v>89.155452</v>
       </c>
       <c r="O12">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="P12">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="Q12">
-        <v>662.9748105471667</v>
+        <v>1583.241358134856</v>
       </c>
       <c r="R12">
-        <v>5966.7732949245</v>
+        <v>14249.1722232137</v>
       </c>
       <c r="S12">
-        <v>0.01633859896551951</v>
+        <v>0.03329773901080092</v>
       </c>
       <c r="T12">
-        <v>0.01633859896551951</v>
+        <v>0.03329773901080092</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>38.15794</v>
+        <v>53.27463399999999</v>
       </c>
       <c r="H13">
-        <v>114.47382</v>
+        <v>159.823902</v>
       </c>
       <c r="I13">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793777</v>
       </c>
       <c r="J13">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793778</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.162136</v>
+        <v>0.275941</v>
       </c>
       <c r="N13">
-        <v>0.4864080000000001</v>
+        <v>0.827823</v>
       </c>
       <c r="O13">
-        <v>0.001443712303133186</v>
+        <v>0.002220334433101459</v>
       </c>
       <c r="P13">
-        <v>0.001443712303133187</v>
+        <v>0.002220334433101458</v>
       </c>
       <c r="Q13">
-        <v>6.186775759840001</v>
+        <v>14.700655780594</v>
       </c>
       <c r="R13">
-        <v>55.68098183856001</v>
+        <v>132.305902025346</v>
       </c>
       <c r="S13">
-        <v>0.0001524692136435726</v>
+        <v>0.0003091749700415209</v>
       </c>
       <c r="T13">
-        <v>0.0001524692136435726</v>
+        <v>0.0003091749700415209</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>104.737245</v>
+        <v>91.01828266666666</v>
       </c>
       <c r="H14">
-        <v>314.211735</v>
+        <v>273.054848</v>
       </c>
       <c r="I14">
-        <v>0.289879649970129</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="J14">
-        <v>0.2898796499701289</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.854571666666667</v>
+        <v>1.370876333333333</v>
       </c>
       <c r="N14">
-        <v>5.563715</v>
+        <v>4.112629</v>
       </c>
       <c r="O14">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="P14">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="Q14">
-        <v>194.242727021725</v>
+        <v>124.7748096083769</v>
       </c>
       <c r="R14">
-        <v>1748.184543195525</v>
+        <v>1122.973286475392</v>
       </c>
       <c r="S14">
-        <v>0.004786990347578309</v>
+        <v>0.002624185519229105</v>
       </c>
       <c r="T14">
-        <v>0.004786990347578309</v>
+        <v>0.002624185519229105</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>104.737245</v>
+        <v>91.01828266666666</v>
       </c>
       <c r="H15">
-        <v>314.211735</v>
+        <v>273.054848</v>
       </c>
       <c r="I15">
-        <v>0.289879649970129</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="J15">
-        <v>0.2898796499701289</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>278.741173</v>
       </c>
       <c r="O15">
-        <v>0.8273343794712995</v>
+        <v>0.7476219244149905</v>
       </c>
       <c r="P15">
-        <v>0.8273343794712996</v>
+        <v>0.7476219244149904</v>
       </c>
       <c r="Q15">
-        <v>9731.527509362797</v>
+        <v>8456.847624984079</v>
       </c>
       <c r="R15">
-        <v>87583.74758426516</v>
+        <v>76111.6286248567</v>
       </c>
       <c r="S15">
-        <v>0.2398274003293942</v>
+        <v>0.1778591139146115</v>
       </c>
       <c r="T15">
-        <v>0.2398274003293942</v>
+        <v>0.1778591139146115</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>104.737245</v>
+        <v>91.01828266666666</v>
       </c>
       <c r="H16">
-        <v>314.211735</v>
+        <v>273.054848</v>
       </c>
       <c r="I16">
-        <v>0.289879649970129</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="J16">
-        <v>0.2898796499701289</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.37449166666667</v>
+        <v>29.718484</v>
       </c>
       <c r="N16">
-        <v>52.123475</v>
+        <v>89.155452</v>
       </c>
       <c r="O16">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="P16">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="Q16">
-        <v>1819.756390442125</v>
+        <v>2704.925377136811</v>
       </c>
       <c r="R16">
-        <v>16377.80751397913</v>
+        <v>24344.3283942313</v>
       </c>
       <c r="S16">
-        <v>0.04484675647606667</v>
+        <v>0.05688829361917292</v>
       </c>
       <c r="T16">
-        <v>0.04484675647606666</v>
+        <v>0.05688829361917291</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>104.737245</v>
+        <v>91.01828266666666</v>
       </c>
       <c r="H17">
-        <v>314.211735</v>
+        <v>273.054848</v>
       </c>
       <c r="I17">
-        <v>0.289879649970129</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="J17">
-        <v>0.2898796499701289</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.162136</v>
+        <v>0.275941</v>
       </c>
       <c r="N17">
-        <v>0.4864080000000001</v>
+        <v>0.827823</v>
       </c>
       <c r="O17">
-        <v>0.001443712303133186</v>
+        <v>0.002220334433101459</v>
       </c>
       <c r="P17">
-        <v>0.001443712303133187</v>
+        <v>0.002220334433101458</v>
       </c>
       <c r="Q17">
-        <v>16.98167795532001</v>
+        <v>25.11567593732267</v>
       </c>
       <c r="R17">
-        <v>152.83510159788</v>
+        <v>226.041083435904</v>
       </c>
       <c r="S17">
-        <v>0.0004185028170898168</v>
+        <v>0.000528217140200294</v>
       </c>
       <c r="T17">
-        <v>0.0004185028170898168</v>
+        <v>0.000528217140200294</v>
       </c>
     </row>
   </sheetData>
